--- a/Tarea2/datosTarea2.xlsx
+++ b/Tarea2/datosTarea2.xlsx
@@ -115,7 +115,7 @@
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C9:C150 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -941,8 +941,8 @@
   </sheetPr>
   <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A297" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9:C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -960,7 +960,7 @@
         <v>-0.000363557264518422</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1" s="0"/>
     </row>
@@ -972,7 +972,7 @@
         <v>-1.59792439842016</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D2" s="0"/>
     </row>
@@ -984,7 +984,7 @@
         <v>-0.689459910504241</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D3" s="0"/>
     </row>
@@ -996,7 +996,7 @@
         <v>7.0282705059864</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D4" s="0"/>
     </row>
@@ -1008,7 +1008,7 @@
         <v>0.380758065877005</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="0"/>
     </row>
@@ -1020,7 +1020,7 @@
         <v>-0.289225920447329</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D6" s="0"/>
     </row>
@@ -1032,7 +1032,7 @@
         <v>4.13118062219778</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D7" s="0"/>
     </row>
@@ -1044,7 +1044,7 @@
         <v>0.0458244183146824</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D8" s="0"/>
     </row>
@@ -1056,7 +1056,7 @@
         <v>1.97209918183618</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D9" s="0"/>
     </row>
@@ -1068,7 +1068,7 @@
         <v>2.67382150503585</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D10" s="0"/>
     </row>
@@ -1080,7 +1080,7 @@
         <v>-1.62381439443841</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D11" s="0"/>
     </row>
@@ -1092,7 +1092,7 @@
         <v>-0.0723915749874786</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D12" s="0"/>
     </row>
@@ -1104,7 +1104,7 @@
         <v>6.82038722809115</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D13" s="0"/>
     </row>
@@ -1116,7 +1116,7 @@
         <v>1.41576678144002</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D14" s="0"/>
     </row>
@@ -1128,7 +1128,7 @@
         <v>3.74995242072467</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D15" s="0"/>
     </row>
@@ -1140,7 +1140,7 @@
         <v>4.86698129048324</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D16" s="0"/>
     </row>
@@ -1152,7 +1152,7 @@
         <v>2.74950862470943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D17" s="0"/>
     </row>
@@ -1164,7 +1164,7 @@
         <v>1.38095507651904</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D18" s="0"/>
     </row>
@@ -1176,7 +1176,7 @@
         <v>4.88786218393955</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D19" s="0"/>
     </row>
@@ -1188,7 +1188,7 @@
         <v>-2.81724088355157</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D20" s="0"/>
     </row>
@@ -1200,7 +1200,7 @@
         <v>4.66250740407033</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D21" s="0"/>
     </row>
@@ -1212,7 +1212,7 @@
         <v>-5.38442670820017</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D22" s="0"/>
     </row>
@@ -1224,7 +1224,7 @@
         <v>-2.83253281394637</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D23" s="0"/>
     </row>
@@ -1236,7 +1236,7 @@
         <v>-0.297029329848941</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D24" s="0"/>
     </row>
@@ -1248,7 +1248,7 @@
         <v>0.740894137376926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D25" s="0"/>
     </row>
@@ -1260,7 +1260,7 @@
         <v>-3.94605258491323</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D26" s="0"/>
     </row>
@@ -1272,7 +1272,7 @@
         <v>3.35562406459022</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D27" s="0"/>
     </row>
@@ -1284,7 +1284,7 @@
         <v>0.768630028550924</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D28" s="0"/>
     </row>
@@ -1296,7 +1296,7 @@
         <v>-2.32513337122474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D29" s="0"/>
     </row>
@@ -1308,7 +1308,7 @@
         <v>-2.61388790776065</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D30" s="0"/>
     </row>
@@ -1320,7 +1320,7 @@
         <v>-1.91482497430415</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D31" s="0"/>
     </row>
@@ -1332,7 +1332,7 @@
         <v>-1.53698152600588</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D32" s="0"/>
     </row>
@@ -1344,7 +1344,7 @@
         <v>0.616098459536403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D33" s="0"/>
     </row>
@@ -1356,7 +1356,7 @@
         <v>0.835940793352028</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D34" s="0"/>
     </row>
@@ -1368,7 +1368,7 @@
         <v>-0.777591578002974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D35" s="0"/>
     </row>
@@ -1380,7 +1380,7 @@
         <v>0.743204159853032</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D36" s="0"/>
     </row>
@@ -1392,7 +1392,7 @@
         <v>-0.964777903693765</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D37" s="0"/>
     </row>
@@ -1404,7 +1404,7 @@
         <v>1.53592691375855</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D38" s="0"/>
     </row>
@@ -1416,7 +1416,7 @@
         <v>5.69699098196301</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D39" s="0"/>
     </row>
@@ -1428,7 +1428,7 @@
         <v>3.61176879351576</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D40" s="0"/>
     </row>
@@ -1440,7 +1440,7 @@
         <v>-0.241123912318503</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D41" s="0"/>
     </row>
@@ -1452,7 +1452,7 @@
         <v>1.44129889714975</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D42" s="0"/>
     </row>
@@ -1464,7 +1464,7 @@
         <v>0.51571433213224</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D43" s="0"/>
     </row>
@@ -1476,7 +1476,7 @@
         <v>-0.295727327515016</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D44" s="0"/>
     </row>
@@ -1488,7 +1488,7 @@
         <v>0.0488684855369481</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D45" s="0"/>
     </row>
@@ -1500,7 +1500,7 @@
         <v>4.37103444188023</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D46" s="0"/>
     </row>
@@ -1512,7 +1512,7 @@
         <v>-0.654930544006823</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D47" s="0"/>
     </row>
@@ -1524,7 +1524,7 @@
         <v>1.57715029630429</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D48" s="0"/>
     </row>
@@ -1536,7 +1536,7 @@
         <v>2.86870386215885</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D49" s="0"/>
     </row>
@@ -1548,7 +1548,7 @@
         <v>-2.13329946193126</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D50" s="0"/>
     </row>
@@ -1560,7 +1560,7 @@
         <v>-3.56831368560342</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D51" s="0"/>
     </row>
@@ -1572,7 +1572,7 @@
         <v>3.33550171687128</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D52" s="0"/>
     </row>
@@ -1584,7 +1584,7 @@
         <v>2.17003849209065</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D53" s="0"/>
     </row>
@@ -1596,7 +1596,7 @@
         <v>-0.618784215536596</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D54" s="0"/>
     </row>
@@ -1608,7 +1608,7 @@
         <v>4.42665754092014</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D55" s="0"/>
     </row>
@@ -1620,7 +1620,7 @@
         <v>1.96051673377993</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D56" s="0"/>
     </row>
@@ -1632,7 +1632,7 @@
         <v>-0.235186690210576</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D57" s="0"/>
     </row>
@@ -1644,7 +1644,7 @@
         <v>-0.337280652128038</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D58" s="0"/>
     </row>
@@ -1656,7 +1656,7 @@
         <v>-0.521487760537763</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D59" s="0"/>
     </row>
@@ -1668,7 +1668,7 @@
         <v>-2.31603792692189</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D60" s="0"/>
     </row>
@@ -1680,7 +1680,7 @@
         <v>9.2788943585869</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D61" s="0"/>
     </row>
@@ -1692,7 +1692,7 @@
         <v>-5.88792768303495</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D62" s="0"/>
     </row>
@@ -1704,7 +1704,7 @@
         <v>1.8280057168431</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D63" s="0"/>
     </row>
@@ -1716,7 +1716,7 @@
         <v>1.01713722407899</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D64" s="0"/>
     </row>
@@ -1728,7 +1728,7 @@
         <v>-2.88400380622335</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D65" s="0"/>
     </row>
@@ -1740,7 +1740,7 @@
         <v>0.558329763016868</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D66" s="0"/>
     </row>
@@ -1752,7 +1752,7 @@
         <v>2.18188404677903</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D67" s="0"/>
     </row>
@@ -1764,7 +1764,7 @@
         <v>4.1107836604145</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D68" s="0"/>
     </row>
@@ -1776,7 +1776,7 @@
         <v>1.3418226888578</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D69" s="0"/>
     </row>
@@ -1788,7 +1788,7 @@
         <v>2.76213092296011</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D70" s="0"/>
     </row>
@@ -1800,7 +1800,7 @@
         <v>6.30802705877517</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D71" s="0"/>
     </row>
@@ -1812,7 +1812,7 @@
         <v>0.670093958912849</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D72" s="0"/>
     </row>
@@ -1824,7 +1824,7 @@
         <v>-0.735796986743373</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D73" s="0"/>
     </row>
@@ -1836,7 +1836,7 @@
         <v>-3.32958392294507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D74" s="0"/>
     </row>
@@ -1848,7 +1848,7 @@
         <v>3.57282840942446</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D75" s="0"/>
     </row>
@@ -1860,7 +1860,7 @@
         <v>-0.542212479833717</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D76" s="0"/>
     </row>
@@ -1872,7 +1872,7 @@
         <v>5.30960275006766</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D77" s="0"/>
     </row>
@@ -1884,7 +1884,7 @@
         <v>1.21867308867125</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D78" s="0"/>
     </row>
@@ -1896,7 +1896,7 @@
         <v>0.59269092765663</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D79" s="0"/>
     </row>
@@ -1908,7 +1908,7 @@
         <v>-0.705924057099307</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D80" s="0"/>
     </row>
@@ -1920,7 +1920,7 @@
         <v>-0.560747507979774</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D81" s="0"/>
     </row>
@@ -1932,7 +1932,7 @@
         <v>-2.82172748534222</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D82" s="0"/>
     </row>
@@ -1944,7 +1944,7 @@
         <v>2.81602019605655</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D83" s="0"/>
     </row>
@@ -1956,7 +1956,7 @@
         <v>-0.271420017642127</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D84" s="0"/>
     </row>
@@ -1968,7 +1968,7 @@
         <v>2.93552078458391</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D85" s="0"/>
     </row>
@@ -1980,7 +1980,7 @@
         <v>-4.11662556405115</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D86" s="0"/>
     </row>
@@ -1992,7 +1992,7 @@
         <v>2.04267989391057</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D87" s="0"/>
     </row>
@@ -2004,7 +2004,7 @@
         <v>-1.76684999123367</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D88" s="0"/>
     </row>
@@ -2016,7 +2016,7 @@
         <v>-3.73419866767878</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D89" s="0"/>
     </row>
@@ -2028,7 +2028,7 @@
         <v>0.288817035953273</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D90" s="0"/>
     </row>
@@ -2040,7 +2040,7 @@
         <v>2.86318430836402</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D91" s="0"/>
     </row>
@@ -2052,7 +2052,7 @@
         <v>4.1224853097502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D92" s="0"/>
     </row>
@@ -2064,7 +2064,7 @@
         <v>4.73079678856368</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D93" s="0"/>
     </row>
@@ -2076,7 +2076,7 @@
         <v>-0.144922981854746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D94" s="0"/>
     </row>
@@ -2088,7 +2088,7 @@
         <v>-1.90231817603989</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D95" s="0"/>
     </row>
@@ -2100,7 +2100,7 @@
         <v>10.1760745562786</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D96" s="0"/>
     </row>
@@ -2112,7 +2112,7 @@
         <v>-0.662308713194761</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D97" s="0"/>
     </row>
@@ -2124,7 +2124,7 @@
         <v>-1.13122011239405</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D98" s="0"/>
     </row>
@@ -2136,7 +2136,7 @@
         <v>2.43546085275463</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D99" s="0"/>
     </row>
@@ -2148,7 +2148,7 @@
         <v>-2.24821883080563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D100" s="0"/>
     </row>
@@ -2160,7 +2160,7 @@
         <v>-1.01540853945566</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D101" s="0"/>
     </row>
@@ -2172,7 +2172,7 @@
         <v>-3.61406071491817</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D102" s="0"/>
     </row>
@@ -2184,7 +2184,7 @@
         <v>0.396882374820403</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D103" s="0"/>
     </row>
@@ -2196,7 +2196,7 @@
         <v>-2.40115517752222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D104" s="0"/>
     </row>
@@ -2208,7 +2208,7 @@
         <v>2.1744613900271</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D105" s="0"/>
     </row>
@@ -2220,7 +2220,7 @@
         <v>1.56953788898133</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D106" s="0"/>
     </row>
@@ -2232,7 +2232,7 @@
         <v>-1.17114954805114</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D107" s="0"/>
     </row>
@@ -2244,7 +2244,7 @@
         <v>-0.158875954699737</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D108" s="0"/>
     </row>
@@ -2256,7 +2256,7 @@
         <v>-0.72477186765746</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D109" s="0"/>
     </row>
@@ -2268,7 +2268,7 @@
         <v>1.5096198395792</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D110" s="0"/>
     </row>
@@ -2280,7 +2280,7 @@
         <v>-0.978807456114956</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D111" s="0"/>
     </row>
@@ -2292,7 +2292,7 @@
         <v>1.81881082934732</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D112" s="0"/>
     </row>
@@ -2304,7 +2304,7 @@
         <v>-1.56064355185899</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D113" s="0"/>
     </row>
@@ -2316,7 +2316,7 @@
         <v>2.77067818194937</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D114" s="0"/>
     </row>
@@ -2328,7 +2328,7 @@
         <v>0.501174348785835</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D115" s="0"/>
     </row>
@@ -2340,7 +2340,7 @@
         <v>-5.18010603184656</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D116" s="0"/>
     </row>
@@ -2352,7 +2352,7 @@
         <v>1.57579660464873</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D117" s="0"/>
     </row>
@@ -2364,7 +2364,7 @@
         <v>3.85192175766767</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D118" s="0"/>
     </row>
@@ -2376,7 +2376,7 @@
         <v>4.81490585020297</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D119" s="0"/>
     </row>
@@ -2388,7 +2388,7 @@
         <v>1.69172432935992</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D120" s="0"/>
     </row>
@@ -2400,7 +2400,7 @@
         <v>5.46007440494949</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D121" s="0"/>
     </row>
@@ -2412,7 +2412,7 @@
         <v>3.08611919521731</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D122" s="0"/>
     </row>
@@ -2424,7 +2424,7 @@
         <v>7.3492424286641</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D123" s="0"/>
     </row>
@@ -2436,7 +2436,7 @@
         <v>1.80162779493316</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D124" s="0"/>
     </row>
@@ -2448,7 +2448,7 @@
         <v>2.44600675082031</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D125" s="0"/>
     </row>
@@ -2460,7 +2460,7 @@
         <v>2.31428875229894</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D126" s="0"/>
     </row>
@@ -2472,7 +2472,7 @@
         <v>2.68102596509624</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D127" s="0"/>
     </row>
@@ -2484,7 +2484,7 @@
         <v>3.50701866313932</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D128" s="0"/>
     </row>
@@ -2496,7 +2496,7 @@
         <v>4.21215858321641</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D129" s="0"/>
     </row>
@@ -2508,7 +2508,7 @@
         <v>-1.97065205957008</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D130" s="0"/>
     </row>
@@ -2520,7 +2520,7 @@
         <v>-2.89896859583388</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D131" s="0"/>
     </row>
@@ -2532,7 +2532,7 @@
         <v>5.02582199347125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D132" s="0"/>
     </row>
@@ -2544,7 +2544,7 @@
         <v>3.91237205559186</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D133" s="0"/>
     </row>
@@ -2556,7 +2556,7 @@
         <v>-1.54938570384356</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D134" s="0"/>
     </row>
@@ -2568,7 +2568,7 @@
         <v>0.851836233530887</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D135" s="0"/>
     </row>
@@ -2580,7 +2580,7 @@
         <v>6.5717447479666</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D136" s="0"/>
     </row>
@@ -2592,7 +2592,7 @@
         <v>-2.48272293937612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D137" s="0"/>
     </row>
@@ -2604,7 +2604,7 @@
         <v>1.99148988755619</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D138" s="0"/>
     </row>
@@ -2616,7 +2616,7 @@
         <v>-3.17105696728021</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D139" s="0"/>
     </row>
@@ -2628,7 +2628,7 @@
         <v>1.52194971317315</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D140" s="0"/>
     </row>
@@ -2640,7 +2640,7 @@
         <v>1.92724416268952</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D141" s="0"/>
     </row>
@@ -2652,7 +2652,7 @@
         <v>0.451468440316705</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D142" s="0"/>
     </row>
@@ -2664,7 +2664,7 @@
         <v>3.84064623515479</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D143" s="0"/>
     </row>
@@ -2676,7 +2676,7 @@
         <v>0.589820863988258</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D144" s="0"/>
     </row>
@@ -2688,7 +2688,7 @@
         <v>4.57672737157257</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D145" s="0"/>
     </row>
@@ -2700,7 +2700,7 @@
         <v>4.30428584408822</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D146" s="0"/>
     </row>
@@ -2712,7 +2712,7 @@
         <v>0.169763511779505</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D147" s="0"/>
     </row>
@@ -2724,7 +2724,7 @@
         <v>1.78510141433014</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D148" s="0"/>
     </row>
@@ -2736,7 +2736,7 @@
         <v>1.63456627134983</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D149" s="0"/>
     </row>
@@ -2748,7 +2748,7 @@
         <v>3.91431488921533</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D150" s="0"/>
     </row>
